--- a/Python/March Madness/2025/brackets.xlsx
+++ b/Python/March Madness/2025/brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\March Madness\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E196B02E-3B88-44EF-BFE1-F69A50CCB128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F630C71F-963B-4AE5-B3F9-D0AB077816F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6B52B4A8-5FC3-44D4-A8E6-FE1F58931B55}"/>
+    <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{6B52B4A8-5FC3-44D4-A8E6-FE1F58931B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Men2025" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="116">
   <si>
     <t>USC</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>WOFFORD</t>
+  </si>
+  <si>
+    <t>ALABAMA ST</t>
   </si>
 </sst>
 </file>
@@ -460,12 +463,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -784,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A291E7C-CD8B-4B6A-97CD-D1BFF5DD2B0E}">
   <dimension ref="A2:X37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +829,7 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>72</v>
       </c>
       <c r="D3">
@@ -836,7 +838,7 @@
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <f>D3/(D3+E3)</f>
         <v>0.84848484848484851</v>
       </c>
@@ -845,7 +847,7 @@
       <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" t="s">
         <v>49</v>
       </c>
       <c r="S3">
@@ -854,7 +856,7 @@
       <c r="T3">
         <v>3</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3">
         <f>S3/(S3+T3)</f>
         <v>0.91176470588235292</v>
       </c>
@@ -862,21 +864,21 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>73</v>
+      <c r="C4" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F18" si="0">D4/(D4+E4)</f>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G4">
         <f>MAX(F4,F3)</f>
@@ -884,10 +886,10 @@
       </c>
       <c r="I4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>16</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>94</v>
       </c>
       <c r="S4" s="1">
@@ -911,7 +913,7 @@
       <c r="B5" s="2">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5">
@@ -933,7 +935,7 @@
       <c r="Q5" s="2">
         <v>8</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" t="s">
         <v>3</v>
       </c>
       <c r="S5">
@@ -954,10 +956,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="1">
@@ -977,10 +979,10 @@
       </c>
       <c r="I6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>9</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="1">
@@ -1005,7 +1007,7 @@
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>60</v>
       </c>
       <c r="D7">
@@ -1027,7 +1029,7 @@
       <c r="Q7" s="2">
         <v>5</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" t="s">
         <v>48</v>
       </c>
       <c r="S7">
@@ -1048,10 +1050,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="1">
@@ -1070,10 +1072,10 @@
       </c>
       <c r="I8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>12</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="S8" s="1">
@@ -1097,7 +1099,7 @@
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>75</v>
       </c>
       <c r="D9">
@@ -1119,7 +1121,7 @@
       <c r="Q9" s="2">
         <v>4</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" t="s">
         <v>95</v>
       </c>
       <c r="S9">
@@ -1140,10 +1142,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="1">
@@ -1163,10 +1165,10 @@
         <v>0.88235294117647056</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>13</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="4" t="s">
         <v>96</v>
       </c>
       <c r="S10" s="1">
@@ -1191,7 +1193,7 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11">
@@ -1212,7 +1214,7 @@
       <c r="Q11" s="2">
         <v>6</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" t="s">
         <v>97</v>
       </c>
       <c r="S11">
@@ -1232,21 +1234,21 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>77</v>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="G12">
         <f>MAX(F12,F11)</f>
@@ -1254,10 +1256,10 @@
       </c>
       <c r="I12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>11</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="4" t="s">
         <v>98</v>
       </c>
       <c r="S12" s="1">
@@ -1281,7 +1283,7 @@
       <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>78</v>
       </c>
       <c r="D13">
@@ -1303,7 +1305,7 @@
       <c r="Q13" s="2">
         <v>3</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" t="s">
         <v>99</v>
       </c>
       <c r="S13">
@@ -1324,10 +1326,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="1">
@@ -1347,10 +1349,10 @@
       </c>
       <c r="I14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>14</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="4" t="s">
         <v>100</v>
       </c>
       <c r="S14" s="1">
@@ -1375,7 +1377,7 @@
       <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>80</v>
       </c>
       <c r="D15">
@@ -1397,7 +1399,7 @@
       <c r="Q15" s="2">
         <v>7</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" t="s">
         <v>101</v>
       </c>
       <c r="S15">
@@ -1418,10 +1420,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="1">
@@ -1440,10 +1442,10 @@
       </c>
       <c r="I16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>10</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="4" t="s">
         <v>47</v>
       </c>
       <c r="S16" s="1">
@@ -1467,7 +1469,7 @@
       <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17">
@@ -1489,7 +1491,7 @@
       <c r="Q17" s="2">
         <v>2</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" t="s">
         <v>39</v>
       </c>
       <c r="S17">
@@ -1510,10 +1512,10 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="1">
@@ -1530,10 +1532,10 @@
       <c r="H18" s="1"/>
       <c r="I18" s="3"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>15</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="4" t="s">
         <v>102</v>
       </c>
       <c r="S18" s="1">
@@ -1609,7 +1611,7 @@
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>83</v>
       </c>
       <c r="D22">
@@ -1618,7 +1620,7 @@
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <f>D22/(D22+E22)</f>
         <v>0.88235294117647056</v>
       </c>
@@ -1627,7 +1629,7 @@
       <c r="Q22" s="2">
         <v>1</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" t="s">
         <v>103</v>
       </c>
       <c r="S22">
@@ -1636,7 +1638,7 @@
       <c r="T22">
         <v>4</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22">
         <f>S22/(S22+T22)</f>
         <v>0.88235294117647056</v>
       </c>
@@ -1644,10 +1646,10 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>16</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="1">
@@ -1666,10 +1668,10 @@
       </c>
       <c r="I23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="6">
+      <c r="Q23" s="5">
         <v>16</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="4" t="s">
         <v>104</v>
       </c>
       <c r="S23" s="1">
@@ -1693,7 +1695,7 @@
       <c r="B24" s="2">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24">
@@ -1715,7 +1717,7 @@
       <c r="Q24" s="2">
         <v>8</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" t="s">
         <v>105</v>
       </c>
       <c r="S24">
@@ -1736,10 +1738,10 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>9</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="1">
@@ -1759,10 +1761,10 @@
       </c>
       <c r="I25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <v>9</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="4" t="s">
         <v>106</v>
       </c>
       <c r="S25" s="1">
@@ -1787,7 +1789,7 @@
       <c r="B26" s="2">
         <v>5</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>84</v>
       </c>
       <c r="D26">
@@ -1809,7 +1811,7 @@
       <c r="Q26" s="2">
         <v>5</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="R26" t="s">
         <v>107</v>
       </c>
       <c r="S26">
@@ -1830,10 +1832,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>12</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="1">
@@ -1852,10 +1854,10 @@
       </c>
       <c r="I27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="6">
+      <c r="Q27" s="5">
         <v>12</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="4" t="s">
         <v>108</v>
       </c>
       <c r="S27" s="1">
@@ -1879,7 +1881,7 @@
       <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28">
@@ -1901,7 +1903,7 @@
       <c r="Q28" s="2">
         <v>4</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" t="s">
         <v>109</v>
       </c>
       <c r="S28">
@@ -1922,10 +1924,10 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>13</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="1">
@@ -1945,10 +1947,10 @@
         <v>0.88235294117647056</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="6">
+      <c r="Q29" s="5">
         <v>13</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="4" t="s">
         <v>110</v>
       </c>
       <c r="S29" s="1">
@@ -1973,7 +1975,7 @@
       <c r="B30" s="2">
         <v>6</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>86</v>
       </c>
       <c r="D30">
@@ -1994,7 +1996,7 @@
       <c r="Q30" s="2">
         <v>6</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="R30" t="s">
         <v>54</v>
       </c>
       <c r="S30">
@@ -2014,10 +2016,10 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>11</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D31" s="1">
@@ -2036,10 +2038,10 @@
       </c>
       <c r="I31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="6">
+      <c r="Q31" s="5">
         <v>11</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="4" t="s">
         <v>111</v>
       </c>
       <c r="S31" s="1">
@@ -2063,7 +2065,7 @@
       <c r="B32" s="2">
         <v>3</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>88</v>
       </c>
       <c r="D32">
@@ -2085,7 +2087,7 @@
       <c r="Q32" s="2">
         <v>3</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="R32" t="s">
         <v>6</v>
       </c>
       <c r="S32">
@@ -2106,10 +2108,10 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>14</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="1">
@@ -2129,10 +2131,10 @@
       </c>
       <c r="I33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="6">
+      <c r="Q33" s="5">
         <v>14</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="4" t="s">
         <v>112</v>
       </c>
       <c r="S33" s="1">
@@ -2157,7 +2159,7 @@
       <c r="B34" s="2">
         <v>7</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>90</v>
       </c>
       <c r="D34">
@@ -2179,7 +2181,7 @@
       <c r="Q34" s="2">
         <v>7</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="R34" t="s">
         <v>18</v>
       </c>
       <c r="S34">
@@ -2200,10 +2202,10 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>10</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D35" s="1">
@@ -2222,10 +2224,10 @@
       </c>
       <c r="I35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="6">
+      <c r="Q35" s="5">
         <v>10</v>
       </c>
-      <c r="R35" s="5" t="s">
+      <c r="R35" s="4" t="s">
         <v>113</v>
       </c>
       <c r="S35" s="1">
@@ -2249,7 +2251,7 @@
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>92</v>
       </c>
       <c r="D36">
@@ -2271,7 +2273,7 @@
       <c r="Q36" s="2">
         <v>2</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="R36" t="s">
         <v>56</v>
       </c>
       <c r="S36">
@@ -2292,10 +2294,10 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>15</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D37" s="1">
@@ -2312,10 +2314,10 @@
       <c r="H37" s="1"/>
       <c r="I37" s="3"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="6">
+      <c r="Q37" s="5">
         <v>15</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="4" t="s">
         <v>114</v>
       </c>
       <c r="S37" s="1">
@@ -2354,6 +2356,18 @@
         <color rgb="FF5A8AC6"/>
         <color theme="7" tint="0.39997558519241921"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:O21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2381,18 +2395,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:O21">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2401,7 +2403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E28E88-0CF8-4E90-A52F-0A9A40D2EEE5}">
   <dimension ref="A2:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -2444,7 +2446,7 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>72</v>
       </c>
       <c r="D3">
@@ -2453,7 +2455,7 @@
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <f>D3/(D3+E3)</f>
         <v>0.84848484848484851</v>
       </c>
@@ -2462,7 +2464,7 @@
       <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" t="s">
         <v>49</v>
       </c>
       <c r="S3">
@@ -2471,7 +2473,7 @@
       <c r="T3">
         <v>3</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3">
         <f>S3/(S3+T3)</f>
         <v>0.91176470588235292</v>
       </c>
@@ -2479,10 +2481,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="1">
@@ -2501,10 +2503,10 @@
       </c>
       <c r="I4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>16</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>94</v>
       </c>
       <c r="S4" s="1">
@@ -2528,7 +2530,7 @@
       <c r="B5" s="2">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5">
@@ -2550,7 +2552,7 @@
       <c r="Q5" s="2">
         <v>8</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" t="s">
         <v>3</v>
       </c>
       <c r="S5">
@@ -2571,10 +2573,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="1">
@@ -2594,10 +2596,10 @@
       </c>
       <c r="I6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>9</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="1">
@@ -2622,7 +2624,7 @@
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>60</v>
       </c>
       <c r="D7">
@@ -2644,7 +2646,7 @@
       <c r="Q7" s="2">
         <v>5</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" t="s">
         <v>48</v>
       </c>
       <c r="S7">
@@ -2665,10 +2667,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="1">
@@ -2687,10 +2689,10 @@
       </c>
       <c r="I8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>12</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="S8" s="1">
@@ -2714,7 +2716,7 @@
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>75</v>
       </c>
       <c r="D9">
@@ -2736,7 +2738,7 @@
       <c r="Q9" s="2">
         <v>4</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" t="s">
         <v>95</v>
       </c>
       <c r="S9">
@@ -2757,10 +2759,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="1">
@@ -2780,10 +2782,10 @@
         <v>0.88235294117647056</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>13</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="4" t="s">
         <v>96</v>
       </c>
       <c r="S10" s="1">
@@ -2808,7 +2810,7 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11">
@@ -2829,7 +2831,7 @@
       <c r="Q11" s="2">
         <v>6</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" t="s">
         <v>97</v>
       </c>
       <c r="S11">
@@ -2849,10 +2851,10 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="1">
@@ -2871,10 +2873,10 @@
       </c>
       <c r="I12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>11</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="4" t="s">
         <v>98</v>
       </c>
       <c r="S12" s="1">
@@ -2898,7 +2900,7 @@
       <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>78</v>
       </c>
       <c r="D13">
@@ -2920,7 +2922,7 @@
       <c r="Q13" s="2">
         <v>3</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" t="s">
         <v>99</v>
       </c>
       <c r="S13">
@@ -2941,10 +2943,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="1">
@@ -2964,10 +2966,10 @@
       </c>
       <c r="I14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>14</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="4" t="s">
         <v>100</v>
       </c>
       <c r="S14" s="1">
@@ -2992,7 +2994,7 @@
       <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>80</v>
       </c>
       <c r="D15">
@@ -3014,7 +3016,7 @@
       <c r="Q15" s="2">
         <v>7</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" t="s">
         <v>101</v>
       </c>
       <c r="S15">
@@ -3035,10 +3037,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="1">
@@ -3057,10 +3059,10 @@
       </c>
       <c r="I16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>10</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="4" t="s">
         <v>47</v>
       </c>
       <c r="S16" s="1">
@@ -3084,7 +3086,7 @@
       <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17">
@@ -3106,7 +3108,7 @@
       <c r="Q17" s="2">
         <v>2</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" t="s">
         <v>39</v>
       </c>
       <c r="S17">
@@ -3127,10 +3129,10 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="1">
@@ -3147,10 +3149,10 @@
       <c r="H18" s="1"/>
       <c r="I18" s="3"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>15</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="4" t="s">
         <v>102</v>
       </c>
       <c r="S18" s="1">
@@ -3226,7 +3228,7 @@
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>83</v>
       </c>
       <c r="D22">
@@ -3235,7 +3237,7 @@
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <f>D22/(D22+E22)</f>
         <v>0.88235294117647056</v>
       </c>
@@ -3244,7 +3246,7 @@
       <c r="Q22" s="2">
         <v>1</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" t="s">
         <v>103</v>
       </c>
       <c r="S22">
@@ -3253,7 +3255,7 @@
       <c r="T22">
         <v>4</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22">
         <f>S22/(S22+T22)</f>
         <v>0.88235294117647056</v>
       </c>
@@ -3261,10 +3263,10 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>16</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="1">
@@ -3283,10 +3285,10 @@
       </c>
       <c r="I23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="6">
+      <c r="Q23" s="5">
         <v>16</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="4" t="s">
         <v>104</v>
       </c>
       <c r="S23" s="1">
@@ -3310,7 +3312,7 @@
       <c r="B24" s="2">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24">
@@ -3332,7 +3334,7 @@
       <c r="Q24" s="2">
         <v>8</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" t="s">
         <v>105</v>
       </c>
       <c r="S24">
@@ -3353,10 +3355,10 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>9</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="1">
@@ -3376,10 +3378,10 @@
       </c>
       <c r="I25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <v>9</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="4" t="s">
         <v>106</v>
       </c>
       <c r="S25" s="1">
@@ -3404,7 +3406,7 @@
       <c r="B26" s="2">
         <v>5</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>84</v>
       </c>
       <c r="D26">
@@ -3426,7 +3428,7 @@
       <c r="Q26" s="2">
         <v>5</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="R26" t="s">
         <v>107</v>
       </c>
       <c r="S26">
@@ -3447,10 +3449,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>12</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="1">
@@ -3469,10 +3471,10 @@
       </c>
       <c r="I27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="6">
+      <c r="Q27" s="5">
         <v>12</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="4" t="s">
         <v>108</v>
       </c>
       <c r="S27" s="1">
@@ -3496,7 +3498,7 @@
       <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28">
@@ -3518,7 +3520,7 @@
       <c r="Q28" s="2">
         <v>4</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" t="s">
         <v>109</v>
       </c>
       <c r="S28">
@@ -3539,10 +3541,10 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>13</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="1">
@@ -3562,10 +3564,10 @@
         <v>0.88235294117647056</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="6">
+      <c r="Q29" s="5">
         <v>13</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="4" t="s">
         <v>110</v>
       </c>
       <c r="S29" s="1">
@@ -3590,7 +3592,7 @@
       <c r="B30" s="2">
         <v>6</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>86</v>
       </c>
       <c r="D30">
@@ -3611,7 +3613,7 @@
       <c r="Q30" s="2">
         <v>6</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="R30" t="s">
         <v>54</v>
       </c>
       <c r="S30">
@@ -3631,10 +3633,10 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>11</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D31" s="1">
@@ -3653,10 +3655,10 @@
       </c>
       <c r="I31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="6">
+      <c r="Q31" s="5">
         <v>11</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="4" t="s">
         <v>111</v>
       </c>
       <c r="S31" s="1">
@@ -3680,7 +3682,7 @@
       <c r="B32" s="2">
         <v>3</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>88</v>
       </c>
       <c r="D32">
@@ -3702,7 +3704,7 @@
       <c r="Q32" s="2">
         <v>3</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="R32" t="s">
         <v>6</v>
       </c>
       <c r="S32">
@@ -3723,10 +3725,10 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>14</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="1">
@@ -3746,10 +3748,10 @@
       </c>
       <c r="I33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="6">
+      <c r="Q33" s="5">
         <v>14</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="4" t="s">
         <v>112</v>
       </c>
       <c r="S33" s="1">
@@ -3774,7 +3776,7 @@
       <c r="B34" s="2">
         <v>7</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>90</v>
       </c>
       <c r="D34">
@@ -3796,7 +3798,7 @@
       <c r="Q34" s="2">
         <v>7</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="R34" t="s">
         <v>18</v>
       </c>
       <c r="S34">
@@ -3817,10 +3819,10 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>10</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D35" s="1">
@@ -3839,10 +3841,10 @@
       </c>
       <c r="I35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="6">
+      <c r="Q35" s="5">
         <v>10</v>
       </c>
-      <c r="R35" s="5" t="s">
+      <c r="R35" s="4" t="s">
         <v>113</v>
       </c>
       <c r="S35" s="1">
@@ -3866,7 +3868,7 @@
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>92</v>
       </c>
       <c r="D36">
@@ -3888,7 +3890,7 @@
       <c r="Q36" s="2">
         <v>2</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="R36" t="s">
         <v>56</v>
       </c>
       <c r="S36">
@@ -3909,10 +3911,10 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>15</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D37" s="1">
@@ -3929,10 +3931,10 @@
       <c r="H37" s="1"/>
       <c r="I37" s="3"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="6">
+      <c r="Q37" s="5">
         <v>15</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="4" t="s">
         <v>114</v>
       </c>
       <c r="S37" s="1">
@@ -3974,6 +3976,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K19:O21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U3:X18">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -3995,18 +4009,6 @@
         <color rgb="FF5A8AC6"/>
         <color theme="7" tint="0.39997558519241921"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:O21">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4061,7 +4063,7 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3">
@@ -4070,7 +4072,7 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <f>D3/(D3+E3)</f>
         <v>0.9375</v>
       </c>
@@ -4079,7 +4081,7 @@
       <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" t="s">
         <v>35</v>
       </c>
       <c r="S3">
@@ -4088,7 +4090,7 @@
       <c r="T3">
         <v>3</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3">
         <f>S3/(S3+T3)</f>
         <v>0.90909090909090906</v>
       </c>
@@ -4096,10 +4098,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1"/>
@@ -4116,10 +4118,10 @@
       </c>
       <c r="I4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>16</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="S4" s="1">
@@ -4143,7 +4145,7 @@
       <c r="B5" s="2">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5">
@@ -4165,7 +4167,7 @@
       <c r="Q5" s="2">
         <v>8</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" t="s">
         <v>37</v>
       </c>
       <c r="S5">
@@ -4186,10 +4188,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1">
@@ -4209,10 +4211,10 @@
       </c>
       <c r="I6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>9</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="S6" s="1">
@@ -4237,7 +4239,7 @@
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7">
@@ -4259,7 +4261,7 @@
       <c r="Q7" s="2">
         <v>5</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" t="s">
         <v>39</v>
       </c>
       <c r="S7">
@@ -4280,10 +4282,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="1">
@@ -4302,10 +4304,10 @@
       </c>
       <c r="I8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>12</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="S8" s="1">
@@ -4329,7 +4331,7 @@
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9">
@@ -4351,7 +4353,7 @@
       <c r="Q9" s="2">
         <v>4</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" t="s">
         <v>41</v>
       </c>
       <c r="S9">
@@ -4372,10 +4374,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1">
@@ -4395,10 +4397,10 @@
         <v>0.94117647058823528</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>13</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="S10" s="1">
@@ -4423,7 +4425,7 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11">
@@ -4444,7 +4446,7 @@
       <c r="Q11" s="2">
         <v>6</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" t="s">
         <v>43</v>
       </c>
       <c r="S11">
@@ -4464,10 +4466,10 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1">
@@ -4486,10 +4488,10 @@
       </c>
       <c r="I12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>11</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="S12" s="1">
@@ -4513,7 +4515,7 @@
       <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13">
@@ -4535,7 +4537,7 @@
       <c r="Q13" s="2">
         <v>3</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" t="s">
         <v>45</v>
       </c>
       <c r="S13">
@@ -4556,10 +4558,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="1">
@@ -4579,10 +4581,10 @@
       </c>
       <c r="I14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>14</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="S14" s="1">
@@ -4607,7 +4609,7 @@
       <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
@@ -4629,7 +4631,7 @@
       <c r="Q15" s="2">
         <v>7</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" t="s">
         <v>47</v>
       </c>
       <c r="S15">
@@ -4650,10 +4652,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="1">
@@ -4672,10 +4674,10 @@
       </c>
       <c r="I16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>10</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="S16" s="1">
@@ -4699,7 +4701,7 @@
       <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17">
@@ -4721,7 +4723,7 @@
       <c r="Q17" s="2">
         <v>2</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" t="s">
         <v>49</v>
       </c>
       <c r="S17">
@@ -4742,10 +4744,10 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="1">
@@ -4762,10 +4764,10 @@
       <c r="H18" s="1"/>
       <c r="I18" s="3"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>15</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="S18" s="1">
@@ -4841,7 +4843,7 @@
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="D22">
@@ -4850,7 +4852,7 @@
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <f>D22/(D22+E22)</f>
         <v>0.90322580645161288</v>
       </c>
@@ -4859,7 +4861,7 @@
       <c r="Q22" s="2">
         <v>1</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" t="s">
         <v>52</v>
       </c>
       <c r="S22">
@@ -4868,7 +4870,7 @@
       <c r="T22">
         <v>3</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22">
         <f>S22/(S22+T22)</f>
         <v>0.91176470588235292</v>
       </c>
@@ -4876,10 +4878,10 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>16</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="1">
@@ -4898,10 +4900,10 @@
       </c>
       <c r="I23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="6">
+      <c r="Q23" s="5">
         <v>16</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="4" t="s">
         <v>53</v>
       </c>
       <c r="S23" s="1">
@@ -4925,7 +4927,7 @@
       <c r="B24" s="2">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24">
@@ -4947,7 +4949,7 @@
       <c r="Q24" s="2">
         <v>8</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" t="s">
         <v>54</v>
       </c>
       <c r="S24">
@@ -4968,10 +4970,10 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>9</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1">
@@ -4991,10 +4993,10 @@
       </c>
       <c r="I25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <v>9</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="4" t="s">
         <v>55</v>
       </c>
       <c r="S25" s="1">
@@ -5019,7 +5021,7 @@
       <c r="B26" s="2">
         <v>5</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26">
@@ -5041,7 +5043,7 @@
       <c r="Q26" s="2">
         <v>5</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="R26" t="s">
         <v>56</v>
       </c>
       <c r="S26">
@@ -5062,10 +5064,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>12</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1">
@@ -5084,10 +5086,10 @@
       </c>
       <c r="I27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="6">
+      <c r="Q27" s="5">
         <v>12</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="4" t="s">
         <v>57</v>
       </c>
       <c r="S27" s="1">
@@ -5111,7 +5113,7 @@
       <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28">
@@ -5133,7 +5135,7 @@
       <c r="Q28" s="2">
         <v>4</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" t="s">
         <v>58</v>
       </c>
       <c r="S28">
@@ -5154,10 +5156,10 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>13</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1">
@@ -5177,10 +5179,10 @@
         <v>0.90322580645161288</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="6">
+      <c r="Q29" s="5">
         <v>13</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="4" t="s">
         <v>59</v>
       </c>
       <c r="S29" s="1">
@@ -5205,7 +5207,7 @@
       <c r="B30" s="2">
         <v>6</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30">
@@ -5226,7 +5228,7 @@
       <c r="Q30" s="2">
         <v>6</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="R30" t="s">
         <v>60</v>
       </c>
       <c r="S30">
@@ -5246,10 +5248,10 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>11</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="1">
@@ -5268,10 +5270,10 @@
       </c>
       <c r="I31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="6">
+      <c r="Q31" s="5">
         <v>11</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="4" t="s">
         <v>61</v>
       </c>
       <c r="S31" s="1">
@@ -5295,7 +5297,7 @@
       <c r="B32" s="2">
         <v>3</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32">
@@ -5317,7 +5319,7 @@
       <c r="Q32" s="2">
         <v>3</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="R32" t="s">
         <v>62</v>
       </c>
       <c r="S32">
@@ -5338,10 +5340,10 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>14</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="1">
@@ -5361,10 +5363,10 @@
       </c>
       <c r="I33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="6">
+      <c r="Q33" s="5">
         <v>14</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="4" t="s">
         <v>63</v>
       </c>
       <c r="S33" s="1">
@@ -5389,7 +5391,7 @@
       <c r="B34" s="2">
         <v>7</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34">
@@ -5411,7 +5413,7 @@
       <c r="Q34" s="2">
         <v>7</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="R34" t="s">
         <v>64</v>
       </c>
       <c r="S34">
@@ -5432,10 +5434,10 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>10</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="1">
@@ -5454,10 +5456,10 @@
       </c>
       <c r="I35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="6">
+      <c r="Q35" s="5">
         <v>10</v>
       </c>
-      <c r="R35" s="5" t="s">
+      <c r="R35" s="4" t="s">
         <v>65</v>
       </c>
       <c r="S35" s="1">
@@ -5481,7 +5483,7 @@
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36">
@@ -5503,7 +5505,7 @@
       <c r="Q36" s="2">
         <v>2</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="R36" t="s">
         <v>66</v>
       </c>
       <c r="S36">
@@ -5524,10 +5526,10 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>15</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="1">
@@ -5544,10 +5546,10 @@
       <c r="H37" s="1"/>
       <c r="I37" s="3"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="6">
+      <c r="Q37" s="5">
         <v>15</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="4" t="s">
         <v>67</v>
       </c>
       <c r="S37" s="1">
@@ -5586,6 +5588,18 @@
         <color rgb="FF5A8AC6"/>
         <color theme="7" tint="0.39997558519241921"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:O21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -5613,18 +5627,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:O21">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Python/March Madness/2025/brackets.xlsx
+++ b/Python/March Madness/2025/brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\March Madness\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F630C71F-963B-4AE5-B3F9-D0AB077816F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72D8BD9-8F0E-4D95-9CE6-6CB94922CDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{6B52B4A8-5FC3-44D4-A8E6-FE1F58931B55}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{6B52B4A8-5FC3-44D4-A8E6-FE1F58931B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Men2025" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="115">
   <si>
     <t>USC</t>
   </si>
@@ -86,9 +86,6 @@
     <t>UCLA</t>
   </si>
   <si>
-    <t>UCSD/SOUTH</t>
-  </si>
-  <si>
     <t>RICHMOND</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>MICHIGAN</t>
   </si>
   <si>
-    <t>IAST/PRINCETON</t>
-  </si>
-  <si>
     <t>NOTRE DAME</t>
   </si>
   <si>
@@ -375,6 +369,9 @@
   </si>
   <si>
     <t>ALABAMA ST</t>
+  </si>
+  <si>
+    <t>Southern</t>
   </si>
 </sst>
 </file>
@@ -786,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A291E7C-CD8B-4B6A-97CD-D1BFF5DD2B0E}">
   <dimension ref="A2:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -805,7 +802,7 @@
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -815,7 +812,7 @@
       <c r="I2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -830,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>28</v>
@@ -848,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S3">
         <v>31</v>
@@ -868,7 +865,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -890,7 +887,7 @@
         <v>16</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
@@ -914,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -960,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1">
         <v>24</v>
@@ -983,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S6" s="1">
         <v>19</v>
@@ -1008,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -1030,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S7">
         <v>24</v>
@@ -1054,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -1100,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>22</v>
@@ -1122,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S9">
         <v>22</v>
@@ -1146,7 +1143,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1">
         <v>22</v>
@@ -1169,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S10" s="1">
         <v>28</v>
@@ -1194,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>22</v>
@@ -1215,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="R11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S11">
         <v>24</v>
@@ -1238,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>23</v>
@@ -1260,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S12" s="1">
         <v>28</v>
@@ -1284,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>24</v>
@@ -1306,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="R13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S13">
         <v>26</v>
@@ -1330,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -1353,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S14" s="1">
         <v>25</v>
@@ -1378,7 +1375,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <v>23</v>
@@ -1400,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="R15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S15">
         <v>28</v>
@@ -1424,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1">
         <v>26</v>
@@ -1446,7 +1443,7 @@
         <v>10</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S16" s="1">
         <v>20</v>
@@ -1470,7 +1467,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>27</v>
@@ -1492,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S17">
         <v>25</v>
@@ -1516,7 +1513,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1">
         <v>23</v>
@@ -1536,7 +1533,7 @@
         <v>15</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S18" s="1">
         <v>26</v>
@@ -1575,7 +1572,7 @@
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1597,7 +1594,7 @@
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -1612,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -1630,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S22">
         <v>30</v>
@@ -1650,7 +1647,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1">
         <v>24</v>
@@ -1672,7 +1669,7 @@
         <v>16</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S23" s="1">
         <v>22</v>
@@ -1718,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="R24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S24">
         <v>25</v>
@@ -1765,7 +1762,7 @@
         <v>9</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S25" s="1">
         <v>20</v>
@@ -1790,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>29</v>
@@ -1812,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="R26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S26">
         <v>27</v>
@@ -1836,7 +1833,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1">
         <v>25</v>
@@ -1858,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S27" s="1">
         <v>27</v>
@@ -1882,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28">
         <v>25</v>
@@ -1904,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S28">
         <v>22</v>
@@ -1928,7 +1925,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1">
         <v>26</v>
@@ -1951,7 +1948,7 @@
         <v>13</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S29" s="1">
         <v>29</v>
@@ -1976,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <v>22</v>
@@ -1997,7 +1994,7 @@
         <v>6</v>
       </c>
       <c r="R30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S30">
         <v>21</v>
@@ -2020,7 +2017,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1">
         <v>30</v>
@@ -2042,7 +2039,7 @@
         <v>11</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
@@ -2066,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D32">
         <v>25</v>
@@ -2112,7 +2109,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" s="1">
         <v>27</v>
@@ -2135,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S33" s="1">
         <v>23</v>
@@ -2160,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D34">
         <v>21</v>
@@ -2206,7 +2203,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1">
         <v>23</v>
@@ -2228,7 +2225,7 @@
         <v>10</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S35" s="1">
         <v>26</v>
@@ -2252,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -2274,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S36">
         <v>27</v>
@@ -2298,7 +2295,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" s="1">
         <v>22</v>
@@ -2318,7 +2315,7 @@
         <v>15</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S37" s="1">
         <v>19</v>
@@ -2422,7 +2419,7 @@
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2432,7 +2429,7 @@
       <c r="I2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -2447,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>28</v>
@@ -2465,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S3">
         <v>31</v>
@@ -2485,7 +2482,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -2507,7 +2504,7 @@
         <v>16</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
@@ -2531,7 +2528,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -2577,7 +2574,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1">
         <v>24</v>
@@ -2600,7 +2597,7 @@
         <v>9</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S6" s="1">
         <v>19</v>
@@ -2625,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -2647,7 +2644,7 @@
         <v>5</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S7">
         <v>24</v>
@@ -2671,7 +2668,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -2717,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>22</v>
@@ -2739,7 +2736,7 @@
         <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S9">
         <v>22</v>
@@ -2763,7 +2760,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1">
         <v>22</v>
@@ -2786,7 +2783,7 @@
         <v>13</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S10" s="1">
         <v>28</v>
@@ -2811,7 +2808,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>22</v>
@@ -2832,7 +2829,7 @@
         <v>6</v>
       </c>
       <c r="R11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S11">
         <v>24</v>
@@ -2855,7 +2852,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -2877,7 +2874,7 @@
         <v>11</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S12" s="1">
         <v>28</v>
@@ -2901,7 +2898,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>24</v>
@@ -2923,7 +2920,7 @@
         <v>3</v>
       </c>
       <c r="R13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S13">
         <v>26</v>
@@ -2947,7 +2944,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -2970,7 +2967,7 @@
         <v>14</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S14" s="1">
         <v>25</v>
@@ -2995,7 +2992,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <v>23</v>
@@ -3017,7 +3014,7 @@
         <v>7</v>
       </c>
       <c r="R15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S15">
         <v>28</v>
@@ -3041,7 +3038,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1">
         <v>26</v>
@@ -3063,7 +3060,7 @@
         <v>10</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S16" s="1">
         <v>20</v>
@@ -3087,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>27</v>
@@ -3109,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S17">
         <v>25</v>
@@ -3133,7 +3130,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1">
         <v>23</v>
@@ -3153,7 +3150,7 @@
         <v>15</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S18" s="1">
         <v>26</v>
@@ -3192,7 +3189,7 @@
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3214,7 +3211,7 @@
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -3229,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -3247,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S22">
         <v>30</v>
@@ -3267,7 +3264,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1">
         <v>24</v>
@@ -3289,7 +3286,7 @@
         <v>16</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S23" s="1">
         <v>22</v>
@@ -3335,7 +3332,7 @@
         <v>8</v>
       </c>
       <c r="R24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S24">
         <v>25</v>
@@ -3382,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S25" s="1">
         <v>20</v>
@@ -3407,7 +3404,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>29</v>
@@ -3429,7 +3426,7 @@
         <v>5</v>
       </c>
       <c r="R26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S26">
         <v>27</v>
@@ -3453,7 +3450,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1">
         <v>25</v>
@@ -3475,7 +3472,7 @@
         <v>12</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S27" s="1">
         <v>27</v>
@@ -3499,7 +3496,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28">
         <v>25</v>
@@ -3521,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S28">
         <v>22</v>
@@ -3545,7 +3542,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1">
         <v>26</v>
@@ -3568,7 +3565,7 @@
         <v>13</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S29" s="1">
         <v>29</v>
@@ -3593,7 +3590,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <v>22</v>
@@ -3614,7 +3611,7 @@
         <v>6</v>
       </c>
       <c r="R30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S30">
         <v>21</v>
@@ -3637,7 +3634,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1">
         <v>30</v>
@@ -3659,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
@@ -3683,7 +3680,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D32">
         <v>25</v>
@@ -3729,7 +3726,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" s="1">
         <v>27</v>
@@ -3752,7 +3749,7 @@
         <v>14</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S33" s="1">
         <v>23</v>
@@ -3777,7 +3774,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D34">
         <v>21</v>
@@ -3823,7 +3820,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1">
         <v>23</v>
@@ -3845,7 +3842,7 @@
         <v>10</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S35" s="1">
         <v>26</v>
@@ -3869,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -3891,7 +3888,7 @@
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S36">
         <v>27</v>
@@ -3915,7 +3912,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" s="1">
         <v>22</v>
@@ -3935,7 +3932,7 @@
         <v>15</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S37" s="1">
         <v>19</v>
@@ -4020,8 +4017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6531345-0A93-429D-845C-0BBD4CBB2FA0}">
   <dimension ref="A2:X37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4049,7 +4046,7 @@
       <c r="I2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -4082,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3">
         <v>30</v>
@@ -4102,15 +4099,17 @@
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="D4" s="1">
+        <v>21</v>
+      </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F18" si="0">D4/(D4+E4)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G4">
         <f>MAX(F4,F3)</f>
@@ -4122,7 +4121,7 @@
         <v>16</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S4" s="1">
         <v>26</v>
@@ -4146,7 +4145,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -4168,7 +4167,7 @@
         <v>8</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5">
         <v>22</v>
@@ -4192,7 +4191,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>22</v>
@@ -4215,7 +4214,7 @@
         <v>9</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S6" s="1">
         <v>19</v>
@@ -4240,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -4262,7 +4261,7 @@
         <v>5</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S7">
         <v>23</v>
@@ -4286,7 +4285,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>27</v>
@@ -4308,7 +4307,7 @@
         <v>12</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S8" s="1">
         <v>29</v>
@@ -4332,7 +4331,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>27</v>
@@ -4354,7 +4353,7 @@
         <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S9">
         <v>23</v>
@@ -4378,7 +4377,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
         <v>32</v>
@@ -4401,7 +4400,7 @@
         <v>13</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S10" s="1">
         <v>30</v>
@@ -4426,7 +4425,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>23</v>
@@ -4447,7 +4446,7 @@
         <v>6</v>
       </c>
       <c r="R11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S11">
         <v>24</v>
@@ -4470,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1">
         <v>27</v>
@@ -4492,7 +4491,7 @@
         <v>11</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
@@ -4516,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>28</v>
@@ -4538,7 +4537,7 @@
         <v>3</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S13">
         <v>27</v>
@@ -4562,7 +4561,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -4585,7 +4584,7 @@
         <v>14</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S14" s="1">
         <v>19</v>
@@ -4610,7 +4609,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>21</v>
@@ -4632,7 +4631,7 @@
         <v>7</v>
       </c>
       <c r="R15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S15">
         <v>22</v>
@@ -4656,7 +4655,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>24</v>
@@ -4678,7 +4677,7 @@
         <v>10</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S16" s="1">
         <v>19</v>
@@ -4702,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>26</v>
@@ -4724,7 +4723,7 @@
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S17">
         <v>26</v>
@@ -4748,7 +4747,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
         <v>21</v>
@@ -4768,7 +4767,7 @@
         <v>15</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S18" s="1">
         <v>27</v>
@@ -4829,7 +4828,7 @@
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -4862,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S22">
         <v>31</v>
@@ -4904,7 +4903,7 @@
         <v>16</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -4950,7 +4949,7 @@
         <v>8</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S24">
         <v>21</v>
@@ -4997,7 +4996,7 @@
         <v>9</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S25" s="1">
         <v>26</v>
@@ -5044,7 +5043,7 @@
         <v>5</v>
       </c>
       <c r="R26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S26">
         <v>22</v>
@@ -5090,7 +5089,7 @@
         <v>12</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S27" s="1">
         <v>23</v>
@@ -5136,7 +5135,7 @@
         <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S28">
         <v>25</v>
@@ -5183,7 +5182,7 @@
         <v>13</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S29" s="1">
         <v>30</v>
@@ -5229,7 +5228,7 @@
         <v>6</v>
       </c>
       <c r="R30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S30">
         <v>22</v>
@@ -5274,17 +5273,17 @@
         <v>11</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="S31" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="V31">
         <f>MAX(U31,U30)</f>
@@ -5320,7 +5319,7 @@
         <v>3</v>
       </c>
       <c r="R32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S32">
         <v>26</v>
@@ -5367,7 +5366,7 @@
         <v>14</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S33" s="1">
         <v>29</v>
@@ -5414,7 +5413,7 @@
         <v>7</v>
       </c>
       <c r="R34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S34">
         <v>21</v>
@@ -5460,7 +5459,7 @@
         <v>10</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S35" s="1">
         <v>21</v>
@@ -5506,7 +5505,7 @@
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S36">
         <v>31</v>
@@ -5550,7 +5549,7 @@
         <v>15</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S37" s="1">
         <v>29</v>
